--- a/biology/Virologie/Secoviridae/Secoviridae.xlsx
+++ b/biology/Virologie/Secoviridae/Secoviridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Secoviridae[3] sont une famille de virus qui comprend huit genres et 86 espèces. Ce sont des virus à ARN linéaire à simple brin à polarité positive, qui infectent les plantes (phytovirus). La famille est rattachée à la classe IV de la classification Baltimore.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Secoviridae sont une famille de virus qui comprend huit genres et 86 espèces. Ce sont des virus à ARN linéaire à simple brin à polarité positive, qui infectent les plantes (phytovirus). La famille est rattachée à la classe IV de la classification Baltimore.
 Le génome, bipartite, comprend deux segments d'ARN linéaire, ARN-1 et ARN-2, longs de 6 à 8 kb et 4 à7 kb respectivement.
 Les virions, non-enveloppés, sont constitués de capsides icosaédriques de 25 à 30 nm de diamètre.
 Les Secoviridae sont transmis par différents vecteurs : soit des insectes (coléoptères, pucerons, aleurodes), soit par des nématodes (genres Charavirus, Nepovirus et Sadwavirus).
@@ -514,9 +526,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (27 décembre 2020)[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (27 décembre 2020)
 La famille des Secoviridae comprend les genres suivants :
 Cheravirus ; espèce-type : virus de la feuille sèche du cerisier ;
 Sadwavirus ; espèce-type : virus du nanisme du satsuma ;
